--- a/AtlasWBSGenerator.xlsx
+++ b/AtlasWBSGenerator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cloudmappr.sharepoint.com/sites/WorkBreakdownPlanner/Shared Documents/atlas-2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{B60B8E41-94DB-452C-8002-B5FBA5F7E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E70E16D-5518-4FE0-A40F-6D789C686890}"/>
+  <xr:revisionPtr revIDLastSave="230" documentId="8_{B60B8E41-94DB-452C-8002-B5FBA5F7E6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F25D7850-6A70-4549-AAEF-4F1084E6E554}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="2" xr2:uid="{FCF27F45-24E2-4A49-A8BF-3589D27E158C}"/>
   </bookViews>
@@ -4870,6 +4870,9 @@
   </cellStyles>
   <dxfs count="6">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -4918,9 +4921,6 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
       <font>
         <i/>
         <strike val="0"/>
@@ -4949,10 +4949,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}" name="wbsToMarkmap" displayName="wbsToMarkmap" ref="A5:E44" totalsRowShown="0">
   <autoFilter ref="A5:E44" xr:uid="{809D99AA-34D3-47B4-8DD1-891C432CA070}"/>
@@ -4962,10 +4958,10 @@
     </tableColumn>
     <tableColumn id="1" xr3:uid="{7E6ACE22-9A3D-41A9-A01C-5672D65FFD37}" name="level"/>
     <tableColumn id="3" xr3:uid="{89AB4693-72CF-4C95-B953-9928D1B800F4}" name="element"/>
-    <tableColumn id="5" xr3:uid="{AB7A790F-99BC-4AEE-B541-54782451FAF6}" name="markmapMM" dataDxfId="4">
+    <tableColumn id="5" xr3:uid="{AB7A790F-99BC-4AEE-B541-54782451FAF6}" name="markmapMM" dataDxfId="0">
       <calculatedColumnFormula>REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{C1F3F6E7-09DF-4B68-81D1-B4033BD2A69A}" name="url" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{C1F3F6E7-09DF-4B68-81D1-B4033BD2A69A}" name="url" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4975,13 +4971,13 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C87CC84E-D7C2-4E0A-87D2-677915B95FD6}" name="markmapToWbs" displayName="markmapToWbs" ref="A1:D141" totalsRowShown="0">
   <autoFilter ref="A1:D141" xr:uid="{C87CC84E-D7C2-4E0A-87D2-677915B95FD6}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{99F20497-A936-43C7-B029-EBD45C29A9DD}" name="wbsNo" dataDxfId="2">
+    <tableColumn id="4" xr3:uid="{99F20497-A936-43C7-B029-EBD45C29A9DD}" name="wbsNo" dataDxfId="3">
       <calculatedColumnFormula>IF(markmapToWbs[[#This Row],[level]]="","",IF(markmapToWbs[[#This Row],[level]]&gt;OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),IF(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)="","1",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))&amp;REPT(".1",markmapToWbs[[#This Row],[level]]-MAX(OFFSET(markmapToWbs[[#This Row],[level]],-1,0,1,1),1)),IF(ISERROR(FIND(".",OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))),REPT("1.",markmapToWbs[[#This Row],[level]]-1)&amp;IFERROR(VALUE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,"1"),IF(markmapToWbs[[#This Row],[level]]=1,"",IFERROR(LEFT(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),FIND("^",SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".","^",markmapToWbs[[#This Row],[level]]-1))),""))&amp;VALUE(TRIM(MID(SUBSTITUTE(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1),".",REPT(" ",LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))),(markmapToWbs[[#This Row],[level]]-1)*LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1))+1,LEN(OFFSET(markmapToWbs[[#This Row],[wbsNo]],-1,0,1,1)))))+1)))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{E549C00A-0EBB-4A64-B14D-BEFAE6965DBF}" name="level" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{E549C00A-0EBB-4A64-B14D-BEFAE6965DBF}" name="level" dataDxfId="2">
       <calculatedColumnFormula array="1">LEN(_xlfn.CHOOSECOLS(_xlfn.TEXTSPLIT(markmapToWbs[[#This Row],[input]]," "),1))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{1F5F0B96-BBBE-46DC-AE41-CAA344DAF80F}" name="element" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{1F5F0B96-BBBE-46DC-AE41-CAA344DAF80F}" name="element" dataDxfId="1">
       <calculatedColumnFormula>_xlfn.TEXTAFTER(markmapToWbs[[#This Row],[input]]," ")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{DBE5AC6A-3195-4831-B5A9-27A1D8509599}" name="input"/>
@@ -5310,8 +5306,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I146"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -5332,11 +5328,11 @@
       </c>
       <c r="C1" t="str">
         <f ca="1">C2&amp;B3&amp;D1&amp;C3</f>
-        <v>&lt;framesrc="./md/054c5639-846a-7531-8707-e216974b85cd"  name="record"&gt;./md054c5639-846a-7531-8707-e216974b85cd"  name="record"&gt;</v>
+        <v>&lt;framesrc="./md/054c5639-6494-7531-f7b5-0cc8fba1b4b5"  name="record"&gt;./md054c5639-6494-7531-f7b5-0cc8fba1b4b5"  name="record"&gt;</v>
       </c>
       <c r="D1" t="str">
         <f ca="1">LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))</f>
-        <v>054c5639-846a-7531-8707-e216974b85cd</v>
+        <v>054c5639-6494-7531-f7b5-0cc8fba1b4b5</v>
       </c>
       <c r="G1" t="s">
         <v>1389</v>
@@ -5351,7 +5347,7 @@
       </c>
       <c r="C2" t="str">
         <f ca="1">"&lt;framesrc="""&amp;baseurl&amp;"/"&amp;D1&amp;"""  name=""record""&gt;"</f>
-        <v>&lt;framesrc="./md/054c5639-846a-7531-8707-e216974b85cd"  name="record"&gt;</v>
+        <v>&lt;framesrc="./md/054c5639-6494-7531-f7b5-0cc8fba1b4b5"  name="record"&gt;</v>
       </c>
       <c r="D2" t="e" cm="1">
         <f t="array" ref="D2">guid</f>
@@ -5418,7 +5414,7 @@
       </c>
       <c r="D6" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v># WBS for Bicycle UI Simulation[🧑‍💻](./md054c5639-61a8-7531-1cdc-3685c51d5996)</v>
+        <v># WBS for Bicycle UI Simulation[🧑‍💻](./md054c5639-61a8-7531-f4ee-b2bddeaafa81)</v>
       </c>
       <c r="G6" t="s">
         <v>1393</v>
@@ -5437,7 +5433,7 @@
       </c>
       <c r="D7" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## Frame Set[🧑‍💻](./md054c5639-61a8-7531-5d8c-c007293642c8)</v>
+        <v>## Frame Set[🧑‍💻](./md054c5639-61a8-7531-2f20-82562a989837)</v>
       </c>
       <c r="G7" t="s">
         <v>1389</v>
@@ -5459,11 +5455,11 @@
       </c>
       <c r="D8" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Frame[🧑‍💻](./md054c5639-61a8-7531-0d94-27aa5e54154f)</v>
+        <v>### Frame[🧑‍💻](./md054c5639-61a8-7531-ade7-1c587d30d82a)</v>
       </c>
       <c r="G8" t="str" cm="1">
         <f t="array" aca="1" ref="G8:G46" ca="1">wbsToMarkmap[markmapMM]</f>
-        <v># WBS for Bicycle UI Simulation[🧑‍💻](./md054c5639-61a8-7531-1cdc-3685c51d5996)</v>
+        <v># WBS for Bicycle UI Simulation[🧑‍💻](./md054c5639-61a8-7531-f4ee-b2bddeaafa81)</v>
       </c>
       <c r="I8" t="s">
         <v>1397</v>
@@ -5482,11 +5478,11 @@
       </c>
       <c r="D9" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Handlebar[🧑‍💻](./md054c5639-61a8-7531-f66c-06b8f0b48d85)</v>
+        <v>### Handlebar[🧑‍💻](./md054c5639-61a8-7531-1560-f87857373010)</v>
       </c>
       <c r="G9" t="str">
         <f ca="1"/>
-        <v>## Frame Set[🧑‍💻](./md054c5639-61a8-7531-5d8c-c007293642c8)</v>
+        <v>## Frame Set[🧑‍💻](./md054c5639-61a8-7531-2f20-82562a989837)</v>
       </c>
       <c r="I9" t="s">
         <v>1398</v>
@@ -5505,11 +5501,11 @@
       </c>
       <c r="D10" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Fork[🧑‍💻](./md054c5639-61a8-7531-cb12-2619921fa132)</v>
+        <v>### Fork[🧑‍💻](./md054c5639-61a8-7531-1fa0-ef119a96dc62)</v>
       </c>
       <c r="G10" t="str">
         <f ca="1"/>
-        <v>### Frame[🧑‍💻](./md054c5639-61a8-7531-0d94-27aa5e54154f)</v>
+        <v>### Frame[🧑‍💻](./md054c5639-61a8-7531-ade7-1c587d30d82a)</v>
       </c>
       <c r="I10" t="s">
         <v>1399</v>
@@ -5528,11 +5524,11 @@
       </c>
       <c r="D11" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Seat[🧑‍💻](./md054c5639-61a8-7531-c696-2039c28ca8f3)</v>
+        <v>### Seat[🧑‍💻](./md054c5639-61a8-7531-f068-af537ff4ee4d)</v>
       </c>
       <c r="G11" t="str">
         <f ca="1"/>
-        <v>### Handlebar[🧑‍💻](./md054c5639-61a8-7531-f66c-06b8f0b48d85)</v>
+        <v>### Handlebar[🧑‍💻](./md054c5639-61a8-7531-1560-f87857373010)</v>
       </c>
       <c r="I11" t="s">
         <v>1450</v>
@@ -5551,11 +5547,11 @@
       </c>
       <c r="D12" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## Crank Set[🧑‍💻](./md054c5639-61a8-7531-eb27-f8d3cab6ce79)</v>
+        <v>## Crank Set[🧑‍💻](./md054c5639-61a8-7531-cc09-2ee1751c83b4)</v>
       </c>
       <c r="G12" t="str">
         <f ca="1"/>
-        <v>### Fork[🧑‍💻](./md054c5639-61a8-7531-cb12-2619921fa132)</v>
+        <v>### Fork[🧑‍💻](./md054c5639-61a8-7531-1fa0-ef119a96dc62)</v>
       </c>
       <c r="I12" t="s">
         <v>1451</v>
@@ -5574,11 +5570,11 @@
       </c>
       <c r="D13" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## Wheels[🧑‍💻](./md054c5639-61a8-7531-e38c-f707ca947cdf)</v>
+        <v>## Wheels[🧑‍💻](./md054c5639-61a8-7531-e952-2223bc524cad)</v>
       </c>
       <c r="G13" t="str">
         <f ca="1"/>
-        <v>### Seat[🧑‍💻](./md054c5639-61a8-7531-c696-2039c28ca8f3)</v>
+        <v>### Seat[🧑‍💻](./md054c5639-61a8-7531-f068-af537ff4ee4d)</v>
       </c>
       <c r="I13" t="s">
         <v>1452</v>
@@ -5597,11 +5593,11 @@
       </c>
       <c r="D14" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Front Wheel[🧑‍💻](./md054c5639-61a8-7531-8ad0-7f04ff746965)</v>
+        <v>### Front Wheel[🧑‍💻](./md054c5639-61a8-7531-94a5-d1dc8082ffa7)</v>
       </c>
       <c r="G14" t="str">
         <f ca="1"/>
-        <v>## Crank Set[🧑‍💻](./md054c5639-61a8-7531-eb27-f8d3cab6ce79)</v>
+        <v>## Crank Set[🧑‍💻](./md054c5639-61a8-7531-cc09-2ee1751c83b4)</v>
       </c>
       <c r="I14" t="s">
         <v>1453</v>
@@ -5620,11 +5616,11 @@
       </c>
       <c r="D15" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Rear Wheel[🧑‍💻](./md054c5639-61a8-7531-71b7-640f033803d0)</v>
+        <v>### Rear Wheel[🧑‍💻](./md054c5639-61a8-7531-36c9-18c6eac1c46b)</v>
       </c>
       <c r="G15" t="str">
         <f ca="1"/>
-        <v>## Wheels[🧑‍💻](./md054c5639-61a8-7531-e38c-f707ca947cdf)</v>
+        <v>## Wheels[🧑‍💻](./md054c5639-61a8-7531-e952-2223bc524cad)</v>
       </c>
       <c r="I15" t="s">
         <v>1400</v>
@@ -5643,11 +5639,11 @@
       </c>
       <c r="D16" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## Braking System[🧑‍💻](./md054c5639-61a8-7531-faf7-851610e2c2f9)</v>
+        <v>## Braking System[🧑‍💻](./md054c5639-61a8-7531-c3a9-0db8343e2698)</v>
       </c>
       <c r="G16" t="str">
         <f ca="1"/>
-        <v>### Front Wheel[🧑‍💻](./md054c5639-61a8-7531-8ad0-7f04ff746965)</v>
+        <v>### Front Wheel[🧑‍💻](./md054c5639-61a8-7531-94a5-d1dc8082ffa7)</v>
       </c>
       <c r="I16" t="s">
         <v>1454</v>
@@ -5666,11 +5662,11 @@
       </c>
       <c r="D17" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## Shifting System[🧑‍💻](./md054c5639-61a8-7531-715c-ba27cc1ff488)</v>
+        <v>## Shifting System[🧑‍💻](./md054c5639-61a8-7531-0574-d709a8f02b50)</v>
       </c>
       <c r="G17" t="str">
         <f ca="1"/>
-        <v>### Rear Wheel[🧑‍💻](./md054c5639-61a8-7531-71b7-640f033803d0)</v>
+        <v>### Rear Wheel[🧑‍💻](./md054c5639-61a8-7531-36c9-18c6eac1c46b)</v>
       </c>
       <c r="I17" t="s">
         <v>1455</v>
@@ -5689,11 +5685,11 @@
       </c>
       <c r="D18" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## Integration[🧑‍💻](./md054c5639-61a8-7531-4d77-996c39ef0485)</v>
+        <v>## Integration[🧑‍💻](./md054c5639-61a8-7531-e467-ed00486af651)</v>
       </c>
       <c r="G18" t="str">
         <f ca="1"/>
-        <v>## Braking System[🧑‍💻](./md054c5639-61a8-7531-faf7-851610e2c2f9)</v>
+        <v>## Braking System[🧑‍💻](./md054c5639-61a8-7531-c3a9-0db8343e2698)</v>
       </c>
       <c r="I18" t="s">
         <v>1456</v>
@@ -5712,11 +5708,11 @@
       </c>
       <c r="D19" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Concept[🧑‍💻](./md054c5639-61a8-7531-40d1-abf6d28d0516)</v>
+        <v>### Concept[🧑‍💻](./md054c5639-61a8-7531-6b24-cbbe01e6b863)</v>
       </c>
       <c r="G19" t="str">
         <f ca="1"/>
-        <v>## Shifting System[🧑‍💻](./md054c5639-61a8-7531-715c-ba27cc1ff488)</v>
+        <v>## Shifting System[🧑‍💻](./md054c5639-61a8-7531-0574-d709a8f02b50)</v>
       </c>
       <c r="I19" t="s">
         <v>1457</v>
@@ -5735,11 +5731,11 @@
       </c>
       <c r="D20" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Design[🧑‍💻](./md054c5639-61a8-7531-65fd-701f0123c74f)</v>
+        <v>### Design[🧑‍💻](./md054c5639-61a8-7531-8093-8243a27912e9)</v>
       </c>
       <c r="G20" t="str">
         <f ca="1"/>
-        <v>## Integration[🧑‍💻](./md054c5639-61a8-7531-4d77-996c39ef0485)</v>
+        <v>## Integration[🧑‍💻](./md054c5639-61a8-7531-e467-ed00486af651)</v>
       </c>
       <c r="I20" t="s">
         <v>1401</v>
@@ -5758,11 +5754,11 @@
       </c>
       <c r="D21" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Assembly[🧑‍💻](./md054c5639-61a8-7531-7939-1d3e1923318c)</v>
+        <v>### Assembly[🧑‍💻](./md054c5639-61a8-7531-5d88-249592539c22)</v>
       </c>
       <c r="G21" t="str">
         <f ca="1"/>
-        <v>### Concept[🧑‍💻](./md054c5639-61a8-7531-40d1-abf6d28d0516)</v>
+        <v>### Concept[🧑‍💻](./md054c5639-61a8-7531-6b24-cbbe01e6b863)</v>
       </c>
       <c r="I21" t="s">
         <v>1458</v>
@@ -5781,11 +5777,11 @@
       </c>
       <c r="D22" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-0527-ebb4497f5b85)</v>
+        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-eb4d-24b0b7f8c1fa)</v>
       </c>
       <c r="G22" t="str">
         <f ca="1"/>
-        <v>### Design[🧑‍💻](./md054c5639-61a8-7531-65fd-701f0123c74f)</v>
+        <v>### Design[🧑‍💻](./md054c5639-61a8-7531-8093-8243a27912e9)</v>
       </c>
       <c r="I22" t="s">
         <v>1459</v>
@@ -5804,11 +5800,11 @@
       </c>
       <c r="D23" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### Component Test RFP[🧑‍💻](./md054c5639-61a8-7531-5091-102a2fdbf4d6)</v>
+        <v>#### Component Test RFP[🧑‍💻](./md054c5639-61a8-7531-6327-aacc6909b24c)</v>
       </c>
       <c r="G23" t="str">
         <f ca="1"/>
-        <v>### Assembly[🧑‍💻](./md054c5639-61a8-7531-7939-1d3e1923318c)</v>
+        <v>### Assembly[🧑‍💻](./md054c5639-61a8-7531-5d88-249592539c22)</v>
       </c>
       <c r="I23" t="s">
         <v>1460</v>
@@ -5827,11 +5823,11 @@
       </c>
       <c r="D24" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-6f9c-abecff66c49b)</v>
+        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-d5df-461992e488e2)</v>
       </c>
       <c r="G24" t="str">
         <f ca="1"/>
-        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-0527-ebb4497f5b85)</v>
+        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-eb4d-24b0b7f8c1fa)</v>
       </c>
       <c r="I24" t="s">
         <v>1461</v>
@@ -5850,11 +5846,11 @@
       </c>
       <c r="D25" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>###### mechEngrL4_JD.docx[🧑‍💻](./md054c5639-61a8-7531-1f65-e31a4af67828)</v>
+        <v>###### mechEngrL4_JD.docx[🧑‍💻](./md054c5639-61a8-7531-5368-b6e9277f5ae9)</v>
       </c>
       <c r="G25" t="str">
         <f ca="1"/>
-        <v>#### Component Test RFP[🧑‍💻](./md054c5639-61a8-7531-5091-102a2fdbf4d6)</v>
+        <v>#### Component Test RFP[🧑‍💻](./md054c5639-61a8-7531-6327-aacc6909b24c)</v>
       </c>
       <c r="I25" t="s">
         <v>1402</v>
@@ -5873,11 +5869,11 @@
       </c>
       <c r="D26" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Industrial Designer[🧑‍💻](./md054c5639-61a8-7531-d73c-b95da6ea633e)</v>
+        <v>##### Industrial Designer[🧑‍💻](./md054c5639-61a8-7531-51ff-69f6258414e1)</v>
       </c>
       <c r="G26" t="str">
         <f ca="1"/>
-        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-6f9c-abecff66c49b)</v>
+        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-d5df-461992e488e2)</v>
       </c>
       <c r="I26" t="s">
         <v>1462</v>
@@ -5896,11 +5892,11 @@
       </c>
       <c r="D27" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Materials Scientist[🧑‍💻](./md054c5639-61a8-7531-9582-5ce65c25b0c2)</v>
+        <v>##### Materials Scientist[🧑‍💻](./md054c5639-61a8-7531-3609-d73c96cf2112)</v>
       </c>
       <c r="G27" t="str">
         <f ca="1"/>
-        <v>###### mechEngrL4_JD.docx[🧑‍💻](./md054c5639-61a8-7531-1f65-e31a4af67828)</v>
+        <v>###### mechEngrL4_JD.docx[🧑‍💻](./md054c5639-61a8-7531-5368-b6e9277f5ae9)</v>
       </c>
       <c r="I27" t="s">
         <v>1463</v>
@@ -5919,11 +5915,11 @@
       </c>
       <c r="D28" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>###### acme_SOW.docx[🧑‍💻](./md054c5639-61a8-7531-b16e-193496c75d20)</v>
+        <v>###### acme_SOW.docx[🧑‍💻](./md054c5639-61a8-7531-f199-35970beca587)</v>
       </c>
       <c r="G28" t="str">
         <f ca="1"/>
-        <v>##### Industrial Designer[🧑‍💻](./md054c5639-61a8-7531-d73c-b95da6ea633e)</v>
+        <v>##### Industrial Designer[🧑‍💻](./md054c5639-61a8-7531-51ff-69f6258414e1)</v>
       </c>
       <c r="I28" t="s">
         <v>1464</v>
@@ -5942,11 +5938,11 @@
       </c>
       <c r="D29" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>###### acme_quote.xlsx[🧑‍💻](./md054c5639-61a8-7531-a31c-956800b35b50)</v>
+        <v>###### acme_quote.xlsx[🧑‍💻](./md054c5639-61a8-7531-a266-25f81bfe82de)</v>
       </c>
       <c r="G29" t="str">
         <f ca="1"/>
-        <v>##### Materials Scientist[🧑‍💻](./md054c5639-61a8-7531-9582-5ce65c25b0c2)</v>
+        <v>##### Materials Scientist[🧑‍💻](./md054c5639-61a8-7531-3609-d73c96cf2112)</v>
       </c>
       <c r="I29" t="s">
         <v>1465</v>
@@ -5965,11 +5961,11 @@
       </c>
       <c r="D30" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Prototypes[🧑‍💻](./md054c5639-61a8-7531-7e54-34278ef0fcfa)</v>
+        <v>##### Prototypes[🧑‍💻](./md054c5639-61a8-7531-5f77-d5e5cfab74d4)</v>
       </c>
       <c r="G30" t="str">
         <f ca="1"/>
-        <v>###### acme_SOW.docx[🧑‍💻](./md054c5639-61a8-7531-b16e-193496c75d20)</v>
+        <v>###### acme_SOW.docx[🧑‍💻](./md054c5639-61a8-7531-f199-35970beca587)</v>
       </c>
       <c r="I30" t="s">
         <v>1403</v>
@@ -5988,11 +5984,11 @@
       </c>
       <c r="D31" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>###### supplierA.xlsx[🧑‍💻](./md054c5639-61a8-7531-b63b-7bc2fdce4cee)</v>
+        <v>###### supplierA.xlsx[🧑‍💻](./md054c5639-61a8-7531-2112-289d737fb728)</v>
       </c>
       <c r="G31" t="str">
         <f ca="1"/>
-        <v>###### acme_quote.xlsx[🧑‍💻](./md054c5639-61a8-7531-a31c-956800b35b50)</v>
+        <v>###### acme_quote.xlsx[🧑‍💻](./md054c5639-61a8-7531-a266-25f81bfe82de)</v>
       </c>
       <c r="I31" t="s">
         <v>1404</v>
@@ -6011,11 +6007,11 @@
       </c>
       <c r="D32" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>###### supplierB.xlsx[🧑‍💻](./md054c5639-61a8-7531-4072-8fd878af34ac)</v>
+        <v>###### supplierB.xlsx[🧑‍💻](./md054c5639-61a8-7531-3b58-3c1baa153734)</v>
       </c>
       <c r="G32" t="str">
         <f ca="1"/>
-        <v>##### Prototypes[🧑‍💻](./md054c5639-61a8-7531-7e54-34278ef0fcfa)</v>
+        <v>##### Prototypes[🧑‍💻](./md054c5639-61a8-7531-5f77-d5e5cfab74d4)</v>
       </c>
       <c r="I32" t="s">
         <v>1405</v>
@@ -6034,11 +6030,11 @@
       </c>
       <c r="D33" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Test Engineer[🧑‍💻](./md054c5639-61a8-7531-3844-948508287a6d)</v>
+        <v>##### Test Engineer[🧑‍💻](./md054c5639-61a8-7531-ca17-3a3df60b6eea)</v>
       </c>
       <c r="G33" t="str">
         <f ca="1"/>
-        <v>###### supplierA.xlsx[🧑‍💻](./md054c5639-61a8-7531-b63b-7bc2fdce4cee)</v>
+        <v>###### supplierA.xlsx[🧑‍💻](./md054c5639-61a8-7531-2112-289d737fb728)</v>
       </c>
       <c r="I33" t="s">
         <v>1466</v>
@@ -6057,11 +6053,11 @@
       </c>
       <c r="D34" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### ComponentTestPlan.docx[🧑‍💻](./md054c5639-61a8-7531-4b0f-f2e5a5853ecd)</v>
+        <v>##### ComponentTestPlan.docx[🧑‍💻](./md054c5639-61a8-7531-99f5-d7c1c3a5be91)</v>
       </c>
       <c r="G34" t="str">
         <f ca="1"/>
-        <v>###### supplierB.xlsx[🧑‍💻](./md054c5639-61a8-7531-4072-8fd878af34ac)</v>
+        <v>###### supplierB.xlsx[🧑‍💻](./md054c5639-61a8-7531-3b58-3c1baa153734)</v>
       </c>
       <c r="I34" t="s">
         <v>1467</v>
@@ -6080,11 +6076,11 @@
       </c>
       <c r="D35" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### ProtoBreakdown.xlsx[🧑‍💻](./md054c5639-61a8-7531-10b5-fde00e8cbf45)</v>
+        <v>##### ProtoBreakdown.xlsx[🧑‍💻](./md054c5639-61a8-7531-fa35-3c15240cd48b)</v>
       </c>
       <c r="G35" t="str">
         <f ca="1"/>
-        <v>##### Test Engineer[🧑‍💻](./md054c5639-61a8-7531-3844-948508287a6d)</v>
+        <v>##### Test Engineer[🧑‍💻](./md054c5639-61a8-7531-ca17-3a3df60b6eea)</v>
       </c>
       <c r="I35" t="s">
         <v>1468</v>
@@ -6103,11 +6099,11 @@
       </c>
       <c r="D36" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### Product Test[🧑‍💻](./md054c5639-61a8-7531-8b9f-3484c472d658)</v>
+        <v>#### Product Test[🧑‍💻](./md054c5639-61a8-7531-9186-9c9ee2795c64)</v>
       </c>
       <c r="G36" t="str">
         <f ca="1"/>
-        <v>##### ComponentTestPlan.docx[🧑‍💻](./md054c5639-61a8-7531-4b0f-f2e5a5853ecd)</v>
+        <v>##### ComponentTestPlan.docx[🧑‍💻](./md054c5639-61a8-7531-99f5-d7c1c3a5be91)</v>
       </c>
       <c r="I36" t="s">
         <v>1469</v>
@@ -6126,11 +6122,11 @@
       </c>
       <c r="D37" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-6d1c-c2ee5c68a363)</v>
+        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-e715-0d9f18decdea)</v>
       </c>
       <c r="G37" t="str">
         <f ca="1"/>
-        <v>##### ProtoBreakdown.xlsx[🧑‍💻](./md054c5639-61a8-7531-10b5-fde00e8cbf45)</v>
+        <v>##### ProtoBreakdown.xlsx[🧑‍💻](./md054c5639-61a8-7531-fa35-3c15240cd48b)</v>
       </c>
       <c r="I37" t="s">
         <v>1406</v>
@@ -6149,11 +6145,11 @@
       </c>
       <c r="D38" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-1c0d-62b3a7f41b33)</v>
+        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-918e-fda9b9aa4b6a)</v>
       </c>
       <c r="G38" t="str">
         <f ca="1"/>
-        <v>#### Product Test[🧑‍💻](./md054c5639-61a8-7531-8b9f-3484c472d658)</v>
+        <v>#### Product Test[🧑‍💻](./md054c5639-61a8-7531-9186-9c9ee2795c64)</v>
       </c>
       <c r="I38" t="s">
         <v>1470</v>
@@ -6172,11 +6168,11 @@
       </c>
       <c r="D39" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### Customer Test[🧑‍💻](./md054c5639-61a8-7531-1ac6-8c7204d4e489)</v>
+        <v>#### Customer Test[🧑‍💻](./md054c5639-61a8-7531-04eb-1533b62ec8f9)</v>
       </c>
       <c r="G39" t="str">
         <f ca="1"/>
-        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-6d1c-c2ee5c68a363)</v>
+        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-e715-0d9f18decdea)</v>
       </c>
       <c r="I39" t="s">
         <v>1471</v>
@@ -6195,11 +6191,11 @@
       </c>
       <c r="D40" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-edac-cfac90fcb36a)</v>
+        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-1cc9-ba1c49879527)</v>
       </c>
       <c r="G40" t="str">
         <f ca="1"/>
-        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-1c0d-62b3a7f41b33)</v>
+        <v>##### Mechanical Engineer[🧑‍💻](./md054c5639-61a8-7531-918e-fda9b9aa4b6a)</v>
       </c>
       <c r="I40" t="s">
         <v>1472</v>
@@ -6218,11 +6214,11 @@
       </c>
       <c r="D41" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>##### User Testing[🧑‍💻](./md054c5639-61a8-7531-75f1-71eb8594f618)</v>
+        <v>##### User Testing[🧑‍💻](./md054c5639-61a8-7531-4dc3-9adeaf5a3ecc)</v>
       </c>
       <c r="G41" t="str">
         <f ca="1"/>
-        <v>#### Customer Test[🧑‍💻](./md054c5639-61a8-7531-1ac6-8c7204d4e489)</v>
+        <v>#### Customer Test[🧑‍💻](./md054c5639-61a8-7531-04eb-1533b62ec8f9)</v>
       </c>
       <c r="I41" t="s">
         <v>1473</v>
@@ -6241,11 +6237,11 @@
       </c>
       <c r="D42" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>## Project Management[🧑‍💻](./md054c5639-61a8-7531-e964-eb4f771ebcff)</v>
+        <v>## Project Management[🧑‍💻](./md054c5639-61a8-7531-33cc-ad0072ef49f3)</v>
       </c>
       <c r="G42" t="str">
         <f ca="1"/>
-        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-edac-cfac90fcb36a)</v>
+        <v>##### Product Test Engineer[🧑‍💻](./md054c5639-61a8-7531-1cc9-ba1c49879527)</v>
       </c>
       <c r="I42" t="s">
         <v>1407</v>
@@ -6264,11 +6260,11 @@
       </c>
       <c r="D43" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-d5b1-bb8aee0ba28d)</v>
+        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-5178-2d6e21221dd5)</v>
       </c>
       <c r="G43" t="str">
         <f ca="1"/>
-        <v>##### User Testing[🧑‍💻](./md054c5639-61a8-7531-75f1-71eb8594f618)</v>
+        <v>##### User Testing[🧑‍💻](./md054c5639-61a8-7531-4dc3-9adeaf5a3ecc)</v>
       </c>
       <c r="I43" t="s">
         <v>1408</v>
@@ -6287,11 +6283,11 @@
       </c>
       <c r="D44" t="str">
         <f ca="1">REPT("#",wbsToMarkmap[[#This Row],[level]])&amp; " " &amp; (IF(B$1="mindmap",wbsToMarkmap[[#This Row],[element]],wbsToMarkmap[[#This Row],[wbsNo]]&amp; " " &amp; wbsToMarkmap[[#This Row],[element]])) &amp; "["&amp;B$2&amp;"]("&amp;B$3&amp;LOWER(CONCATENATE(DEC2HEX(88888889,8),"-",DEC2HEX(25000,4),"-",DEC2HEX(30001,4),"-",DEC2HEX(RANDBETWEEN(0,65535),4),"-",DEC2HEX(RANDBETWEEN(0,4294967295),8),DEC2HEX(RANDBETWEEN(0,65535),4)))&amp;")"</f>
-        <v>#### Project Manager[🧑‍💻](./md054c5639-61a8-7531-90af-76b718b8fa1d)</v>
+        <v>#### Project Manager[🧑‍💻](./md054c5639-61a8-7531-d874-e3845803bbe7)</v>
       </c>
       <c r="G44" t="str">
         <f ca="1"/>
-        <v>## Project Management[🧑‍💻](./md054c5639-61a8-7531-e964-eb4f771ebcff)</v>
+        <v>## Project Management[🧑‍💻](./md054c5639-61a8-7531-33cc-ad0072ef49f3)</v>
       </c>
       <c r="I44" t="s">
         <v>1409</v>
@@ -6300,7 +6296,7 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.5">
       <c r="G45" t="str">
         <f ca="1"/>
-        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-d5b1-bb8aee0ba28d)</v>
+        <v>### Testing[🧑‍💻](./md054c5639-61a8-7531-5178-2d6e21221dd5)</v>
       </c>
       <c r="I45" t="s">
         <v>1474</v>
@@ -6309,7 +6305,7 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.5">
       <c r="G46" t="str">
         <f ca="1"/>
-        <v>#### Project Manager[🧑‍💻](./md054c5639-61a8-7531-90af-76b718b8fa1d)</v>
+        <v>#### Project Manager[🧑‍💻](./md054c5639-61a8-7531-d874-e3845803bbe7)</v>
       </c>
       <c r="I46" t="s">
         <v>1475</v>
@@ -6835,7 +6831,7 @@
   <dimension ref="A1:D141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -9250,8 +9246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FEA394-7EB3-4E0B-9648-BAE69BFC2A24}">
   <dimension ref="A1:Q2355"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A2343" workbookViewId="0">
+      <selection activeCell="D2362" sqref="D2362"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -56685,15 +56681,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="b903bf0f-c6a5-4cb2-b1ec-bd1051193607" xsi:nil="true"/>
@@ -56702,6 +56689,15 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -56900,14 +56896,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFCB168-A783-47B0-B0EC-C36B4EAF5194}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{515B18EA-7D17-4D6F-9967-31C12C6E9E06}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -56921,6 +56909,14 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="b903bf0f-c6a5-4cb2-b1ec-bd1051193607"/>
     <ds:schemaRef ds:uri="b406bd9a-cde6-4834-9a67-0c60db9abeed"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAFCB168-A783-47B0-B0EC-C36B4EAF5194}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
